--- a/serie histórica de vazoes.xlsx
+++ b/serie histórica de vazoes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduardo.xavier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\Google Drive\GRADUAÇÃO\Sistemas Hidrelétricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B53EF1-F3F4-452A-A9C0-520E3D298BF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apresentação" sheetId="5" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +182,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12462,7 +12462,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12612,7 +12611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26390,7 +26388,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27608,10 +27605,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -27619,10 +27616,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -27646,7 +27643,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27692,7 +27695,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0"/>
-            <a:t> localizada no Rio Tocantins, próxima ao município de Minaçu -MG. A usina possui 1.275 MW de capacidade instalada divididos em 3 máquinas.</a:t>
+            <a:t> localizada no Rio Tocantins, próxima ao município de Minaçu-GO. A usina possui 1.275 MW de capacidade instalada divididos em 3 máquinas.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -27718,10 +27721,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9641974" cy="6007434"/>
+    <xdr:ext cx="9644062" cy="6012656"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -27745,10 +27754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9641974" cy="6007434"/>
+    <xdr:ext cx="9644062" cy="6012656"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -28030,11 +28045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M11:M12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28358,11 +28373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L2354"/>
   <sheetViews>
-    <sheetView topLeftCell="A2234" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2267"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47819,11 +47834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2017"/>
   <sheetViews>
-    <sheetView topLeftCell="A1984" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2017"/>
+    <sheetView topLeftCell="A995" workbookViewId="0">
+      <selection activeCell="A1004" sqref="A1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
